--- a/docs/shr-core-EncounterDiagnosis-extension.xlsx
+++ b/docs/shr-core-EncounterDiagnosis-extension.xlsx
@@ -197,7 +197,8 @@
   </si>
   <si>
     <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
-SHR Condition uses the SHR BodySite structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
+SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
   </si>
   <si>
     <t>priorityrank</t>
